--- a/biology/Zoologie/Huttonia_palpimanoides/Huttonia_palpimanoides.xlsx
+++ b/biology/Zoologie/Huttonia_palpimanoides/Huttonia_palpimanoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huttonia palpimanoides, unique représentant du genre Huttonia et de la famille des Huttoniidae, est une espèce d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huttonia palpimanoides, unique représentant du genre Huttonia et de la famille des Huttoniidae, est une espèce d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de cette famille mesurent de 4,0 à 5,5 mm et comptent huit yeux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de cette famille mesurent de 4,0 à 5,5 mm et comptent huit yeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Crétacé[3]. Les fossiles découverts dans de l'ambre du Manitoba au Canada n'ont pas été nommés[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Crétacé. Les fossiles découverts dans de l'ambre du Manitoba au Canada n'ont pas été nommés.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par O. Pickard-Cambridge en 1880. Elle est placée dans la sous-famille des Huttoniinae dans les Palpimanidae  par Simon en 1893[5], cette sous-famille est placée dans les Zodariidae par Petrunkevitch en 1923[6] puis celle-ci est élevée au rang de famille par Forster et Platnick en 1984[2].
-Cette famille rassemble une espèce décrite dans un genre[1] mais selon Forster et Forster en 1999 il existerait vingt autres espèces[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par O. Pickard-Cambridge en 1880. Elle est placée dans la sous-famille des Huttoniinae dans les Palpimanidae  par Simon en 1893, cette sous-famille est placée dans les Zodariidae par Petrunkevitch en 1923 puis celle-ci est élevée au rang de famille par Forster et Platnick en 1984.
+Cette famille rassemble une espèce décrite dans un genre mais selon Forster et Forster en 1999 il existerait vingt autres espèces.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Frederick Wollaston Hutton[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Frederick Wollaston Hutton.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1880 : « On some new and rare spiders from New Zealand, with characters of four new genera. » Proceedings of the Zoological Society of London, vol. 1879, p. 681-703 (texte intégral).
 Simon, 1893 : Histoire naturelle des araignées. Paris, vol. 1, p. 257-488 (texte intégral).</t>
